--- a/data/excel/Super-Sete.xlsx
+++ b/data/excel/Super-Sete.xlsx
@@ -32182,6 +32182,450 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>04/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$30.403,72</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$789,70</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$56,92</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6855</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.190.387,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$747.022,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.300.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>07/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$10.471,96</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$801,42</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>751</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$59,76</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6569</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.305.578,71</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$765.960,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.400.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>09/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$9.173,73</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.034,63</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$54,07</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6324</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.406.494,77</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$677.570,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.500.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$29.869,61</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.040,75</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$66,05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6051</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.516.018,58</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$726.015,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.600.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>14/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$15.672,14</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.119,43</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$66,63</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6390</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.630.949,28</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$762.322,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.700.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$27.352,32</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.221,08</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>683</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$57,21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5537</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.731.241,43</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$664.782,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.800.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="2" type="noConversion"/>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
